--- a/participants/participant_26/participant_26_task_orders.xlsx
+++ b/participants/participant_26/participant_26_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16498730858634934" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16498730879401236" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16498730879410899" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16498730879890869" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16498730880521245" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16502912089203875" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16502912115600796" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16502912115620792" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16502912116250763" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-1650291211701076" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16498730858324535.csv</t>
+          <t>go_stims-16502912088603883.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16498730858464856.csv</t>
+          <t>GNG_stims-1650291208887391.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16498730858484578.csv</t>
+          <t>go_stims-16502912088893902.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16498730858624866.csv</t>
+          <t>GNG_stims-16502912089183867.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_5-1649873086452585.csv</t>
+          <t>TB-1650291211519084.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-1649873087920089.csv</t>
+          <t>OB-16502912100747805.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-16498730870867753.csv</t>
+          <t>OB-16502912101467779.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_5-1649873085994449.csv</t>
+          <t>ZB-match_0-16502912094877844.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-1649873087427778.csv</t>
+          <t>OB-16502912107791076.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-16498730870487761.csv</t>
+          <t>TB-16502912115450861.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_7-16498730867148073.csv</t>
+          <t>ZB-match_6-16502912098057795.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-164987308699781.csv</t>
+          <t>ZB-match_6-16502912091503866.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-16498730871327758.csv</t>
+          <t>TB-16502912113230803.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16498730879561229.csv</t>
+          <t>MM_stims-1650291211576082.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16498730879430866.csv</t>
+          <t>ZM_stims-16502912115630772.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16498730879720867.csv</t>
+          <t>MM_stims-16502912116080775.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16498730879570875.csv</t>
+          <t>ZM_stims-16502912115770767.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-1649873087988123.csv</t>
+          <t>MM_stims-16502912116240768.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-1649873087973086.csv</t>
+          <t>ZM_stims-16502912116090848.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16498730880360906.csv</t>
+          <t>vSAT_stims-16502912116710756.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-1649873088020121.csv</t>
+          <t>SAT_stims-16502912116551144.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-1649873087991088.csv</t>
+          <t>SAT_stims-16502912116290798.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-164987308800411.csv</t>
+          <t>vSAT_stims-1650291211686077.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_26/participant_26_task_orders.xlsx
+++ b/participants/participant_26/participant_26_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16502912089203875" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16502912115600796" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16502912115620792" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16502912116250763" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-1650291211701076" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16504778391439483" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-1650477841053984" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16504778410599513" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16504778411509483" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16504778412139812" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16502912088603883.csv</t>
+          <t>go_stims-16504778391049507.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-1650291208887391.csv</t>
+          <t>GNG_stims-1650477839126949.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16502912088893902.csv</t>
+          <t>go_stims-16504778391289494.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16502912089183867.csv</t>
+          <t>GNG_stims-16504778391429484.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-1650291211519084.csv</t>
+          <t>OB-1650477839808985.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-16502912100747805.csv</t>
+          <t>OB-16504778396629827.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-16502912101467779.csv</t>
+          <t>TB-1650477841030984.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_0-16502912094877844.csv</t>
+          <t>ZB-match_1-16504778391829486.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-16502912107791076.csv</t>
+          <t>ZB-match_1-1650477839457948.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16502912115450861.csv</t>
+          <t>TB-16504778405909536.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_6-16502912098057795.csv</t>
+          <t>ZB-match_4-16504778391569474.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_6-16502912091503866.csv</t>
+          <t>OB-16504778399479482.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-16502912113230803.csv</t>
+          <t>TB-16504778406149828.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-1650291211576082.csv</t>
+          <t>MM_stims-1650477841101949.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16502912115630772.csv</t>
+          <t>ZM_stims-16504778410849485.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16502912116080775.csv</t>
+          <t>MM_stims-16504778411179843.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16502912115770767.csv</t>
+          <t>ZM_stims-1650477841102953.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16502912116240768.csv</t>
+          <t>MM_stims-16504778411499474.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16502912116090848.csv</t>
+          <t>ZM_stims-16504778411229517.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16502912116710756.csv</t>
+          <t>SAT_stims-1650477841153955.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16502912116551144.csv</t>
+          <t>SAT_stims-16504778411659825.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16502912116290798.csv</t>
+          <t>vSAT_stims-16504778411819475.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-1650291211686077.csv</t>
+          <t>vSAT_stims-1650477841197981.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_26/participant_26_task_orders.xlsx
+++ b/participants/participant_26/participant_26_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16504778391439483" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-1650477841053984" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16504778410599513" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16504778411509483" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16504778412139812" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16509961298447628" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-1650996131501465" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-1650996131501465" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16509961315494668" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16509961316296701" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16504778391049507.csv</t>
+          <t>go_stims-1650996129796759.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-1650477839126949.csv</t>
+          <t>GNG_stims-16509961298287687.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16504778391289494.csv</t>
+          <t>go_stims-16509961298287687.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16504778391429484.csv</t>
+          <t>GNG_stims-16509961298447628.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-1650477839808985.csv</t>
+          <t>ZB-match_1-16509961302047265.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-16504778396629827.csv</t>
+          <t>ZB-match_0-16509961299167287.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-1650477841030984.csv</t>
+          <t>TB-16509961308767247.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_1-16504778391829486.csv</t>
+          <t>OB-16509961304207244.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_1-1650477839457948.csv</t>
+          <t>ZB-match_3-16509961300047584.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16504778405909536.csv</t>
+          <t>TB-1650996131173467.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_4-16504778391569474.csv</t>
+          <t>TB-16509961314694648.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-16504778399479482.csv</t>
+          <t>OB-1650996130380726.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-16504778406149828.csv</t>
+          <t>OB-16509961306127632.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-1650477841101949.csv</t>
+          <t>MM_stims-16509961315174663.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778410849485.csv</t>
+          <t>ZM_stims-1650996131501465.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16504778411179843.csv</t>
+          <t>MM_stims-16509961315334663.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-1650477841102953.csv</t>
+          <t>ZM_stims-16509961315174663.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16504778411499474.csv</t>
+          <t>MM_stims-16509961315494668.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778411229517.csv</t>
+          <t>ZM_stims-16509961315334663.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-1650477841153955.csv</t>
+          <t>SAT_stims-16509961315815005.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16504778411659825.csv</t>
+          <t>SAT_stims-16509961315494668.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16504778411819475.csv</t>
+          <t>vSAT_stims-16509961315976703.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-1650477841197981.csv</t>
+          <t>vSAT_stims-16509961316137033.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_26/participant_26_task_orders.xlsx
+++ b/participants/participant_26/participant_26_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16509961298447628" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-1650996131501465" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-1650996131501465" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16509961315494668" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16509961316296701" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16511687280351787" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16511687314070442" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-1651168731408046" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16511687314548554" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-1651168731516651" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-1650996129796759.csv</t>
+          <t>go_stims-16511687280042472.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16509961298287687.csv</t>
+          <t>GNG_stims-16511687280196984.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16509961298287687.csv</t>
+          <t>go_stims-16511687280206976.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16509961298447628.csv</t>
+          <t>GNG_stims-16511687280351787.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_1-16509961302047265.csv</t>
+          <t>TB-16511687313815978.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_0-16509961299167287.csv</t>
+          <t>OB-1651168729122648.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-16509961308767247.csv</t>
+          <t>OB-1651168729678065.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-16509961304207244.csv</t>
+          <t>TB-16511687303597918.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_3-16509961300047584.csv</t>
+          <t>ZB-match_3-1651168728784228.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-1650996131173467.csv</t>
+          <t>TB-16511687300293639.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TB-16509961314694648.csv</t>
+          <t>OB-1651168728997776.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-1650996130380726.csv</t>
+          <t>ZB-match_7-16511687282241187.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-16509961306127632.csv</t>
+          <t>ZB-match_1-16511687285271776.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16509961315174663.csv</t>
+          <t>MM_stims-16511687314226515.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-1650996131501465.csv</t>
+          <t>ZM_stims-16511687314101226.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16509961315334663.csv</t>
+          <t>MM_stims-1651168731438991.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961315174663.csv</t>
+          <t>ZM_stims-16511687314226515.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16509961315494668.csv</t>
+          <t>MM_stims-16511687314548554.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961315334663.csv</t>
+          <t>ZM_stims-1651168731438991.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16509961315815005.csv</t>
+          <t>SAT_stims-1651168731470293.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16509961315494668.csv</t>
+          <t>SAT_stims-16511687314578614.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509961315976703.csv</t>
+          <t>vSAT_stims-16511687314856663.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509961316137033.csv</t>
+          <t>vSAT_stims-16511687315014522.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_26/participant_26_task_orders.xlsx
+++ b/participants/participant_26/participant_26_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16511687280351787" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16511687314070442" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-1651168731408046" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16511687314548554" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-1651168731516651" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-1651255553244722" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16512555558837872" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-165125555588579" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16512555559497843" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16512555560277808" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16511687280042472.csv</t>
+          <t>go_stims-16512555532097223.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16511687280196984.csv</t>
+          <t>GNG_stims-16512555532267325.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16511687280206976.csv</t>
+          <t>go_stims-16512555532287216.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16511687280351787.csv</t>
+          <t>GNG_stims-16512555532427206.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-16511687313815978.csv</t>
+          <t>ZB-match_9-16512555534386263.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-1651168729122648.csv</t>
+          <t>ZB-match_1-16512555532557232.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-1651168729678065.csv</t>
+          <t>TB-16512555558687804.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-16511687303597918.csv</t>
+          <t>ZB-match_5-16512555533007185.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_3-1651168728784228.csv</t>
+          <t>OB-16512555541216266.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16511687300293639.csv</t>
+          <t>TB-16512555558137946.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-1651168728997776.csv</t>
+          <t>OB-16512555537806268.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_7-16511687282241187.csv</t>
+          <t>OB-16512555535056272.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_1-16511687285271776.csv</t>
+          <t>TB-16512555550676258.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16511687314226515.csv</t>
+          <t>MM_stims-16512555559157825.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16511687314101226.csv</t>
+          <t>ZM_stims-16512555558937893.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-1651168731438991.csv</t>
+          <t>MM_stims-165125555593178.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16511687314226515.csv</t>
+          <t>ZM_stims-1651255555916784.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16511687314548554.csv</t>
+          <t>MM_stims-165125555594778.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-1651168731438991.csv</t>
+          <t>ZM_stims-165125555593278.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-1651168731470293.csv</t>
+          <t>SAT_stims-16512555559537828.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16511687314578614.csv</t>
+          <t>SAT_stims-16512555559807801.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16511687314856663.csv</t>
+          <t>vSAT_stims-16512555559957795.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16511687315014522.csv</t>
+          <t>vSAT_stims-16512555560117812.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_26/participant_26_task_orders.xlsx
+++ b/participants/participant_26/participant_26_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-1651255553244722" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16512555558837872" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-165125555588579" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16512555559497843" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16512555560277808" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="RS_TO-1651588989776852" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="GNG_TO-16515889898671927" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="vSAT_TO-1651588989963192" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-1651588990059191" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="NB_TO-16515889929709778" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16512555532097223.csv</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -460,27 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16512555532267325.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>go_stims-16512555532287216.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>GNG_stims-16512555532427206.csv</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -495,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,7 +496,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_9-16512555534386263.csv</t>
+          <t>go_stims-1651588989791852.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_1-16512555532557232.csv</t>
+          <t>GNG_stims-16515889898221924.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +516,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-16512555558687804.csv</t>
+          <t>go_stims-16515889898241925.csv</t>
         </is>
       </c>
     </row>
@@ -546,57 +526,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_5-16512555533007185.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>OB-16512555541216266.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>TB-16512555558137946.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>OB-16512555537806268.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>OB-16512555535056272.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>TB-16512555550676258.csv</t>
+          <t>GNG_stims-16515889898561924.csv</t>
         </is>
       </c>
     </row>
@@ -611,7 +541,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,7 +562,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>SAT_stims-1651588989884192.csv</t>
         </is>
       </c>
     </row>
@@ -642,7 +572,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>vSAT_stims-16515889899481926.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>vSAT_stims-16515889899181929.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>SAT_stims-1651588989903192.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +628,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16512555559157825.csv</t>
+          <t>MM_stims-16515889899951918.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +638,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16512555558937893.csv</t>
+          <t>ZM_stims-16515889899771914.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +648,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-165125555593178.csv</t>
+          <t>MM_stims-16515889900281916.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +658,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-1651255555916784.csv</t>
+          <t>ZM_stims-16515889899971912.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +668,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-165125555594778.csv</t>
+          <t>MM_stims-16515889900571918.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +678,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-165125555593278.csv</t>
+          <t>ZM_stims-16515889900321915.csv</t>
         </is>
       </c>
     </row>
@@ -743,7 +693,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -764,7 +714,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16512555559537828.csv</t>
+          <t>ZB-match_5-16515889916066494.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +724,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16512555559807801.csv</t>
+          <t>OB-16515889917965453.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +734,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16512555559957795.csv</t>
+          <t>ZB-match_8-16515889915597708.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +744,57 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16512555560117812.csv</t>
+          <t>OB-16515889920739543.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>TB-1651588992843991.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>OB-16515889921291208.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ZB-match_2-1651588991257573.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>TB-16515889929553173.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>TB-16515889928127346.csv</t>
         </is>
       </c>
     </row>
